--- a/Produtos_Novo.xlsx
+++ b/Produtos_Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.091487</v>
+        <v>5.2108</v>
       </c>
       <c r="E2" t="n">
-        <v>5091.43608513</v>
+        <v>5210.747892</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7128.010519181999</v>
+        <v>7295.0470488</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.520953928</v>
+        <v>5.592178452000001</v>
       </c>
       <c r="E3" t="n">
-        <v>24844.292676</v>
+        <v>25164.803034</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>49688.585352</v>
+        <v>50329.60606800001</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.091487</v>
+        <v>5.2108</v>
       </c>
       <c r="E4" t="n">
-        <v>4582.28738513</v>
+        <v>4689.667891999999</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7789.888554721</v>
+        <v>7972.435416399999</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.091487</v>
+        <v>5.2108</v>
       </c>
       <c r="E5" t="n">
-        <v>4068.098113</v>
+        <v>4163.4292</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6915.7667921</v>
+        <v>7077.829639999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.520953928</v>
+        <v>5.592178452000001</v>
       </c>
       <c r="E6" t="n">
-        <v>16562.861784</v>
+        <v>16776.535356</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>31469.4373896</v>
+        <v>31875.4171764</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.091487</v>
+        <v>5.2108</v>
       </c>
       <c r="E7" t="n">
-        <v>2446.35767376</v>
+        <v>2503.685184</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4892.71534752</v>
+        <v>5007.370368</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>315.12</v>
+        <v>315.85</v>
       </c>
       <c r="E8" t="n">
-        <v>6302.4</v>
+        <v>6317</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7247.759999999999</v>
+        <v>7264.549999999999</v>
       </c>
     </row>
   </sheetData>
